--- a/biology/Médecine/Muscle_iliaque/Muscle_iliaque.xlsx
+++ b/biology/Médecine/Muscle_iliaque/Muscle_iliaque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle iliaque est un muscle plat et triangulaire qui remplit la fosse iliaque. Il forme la partie latérale muscle ilio-psoas, assurant la flexion de la cuisse au niveau de l'articulation de la hanche (articulation coxo-fémorale).
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Le muscle iliaque en forme d'éventail[1] s’insère sur la partie supérieure interne de la fosse iliaque,  l'épine iliaque antéro-inférieure, sur le ligament lombo-iliaque et sur la base du sacrum.
-Trajet
-Il rejoint le muscle grand psoas pour se terminer avec un tendon commun sur le petit trochanter du fémur.
-Innervation
-Le muscle iliaque est innervé par le nerf fémoral et des branches directes du plexus lombaire[2].
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle iliaque en forme d'éventail s’insère sur la partie supérieure interne de la fosse iliaque,  l'épine iliaque antéro-inférieure, sur le ligament lombo-iliaque et sur la base du sacrum.
 </t>
         </is>
       </c>
@@ -544,12 +557,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il rejoint le muscle grand psoas pour se terminer avec un tendon commun sur le petit trochanter du fémur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Muscle_iliaque</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_iliaque</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle iliaque est innervé par le nerf fémoral et des branches directes du plexus lombaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muscle_iliaque</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_iliaque</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle iliaque agit de concert avec le muscle grand psoas[1]. Il intervient dans la flexion, l'adduction et la rotation de la hanche.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle iliaque agit de concert avec le muscle grand psoas. Il intervient dans la flexion, l'adduction et la rotation de la hanche.
 En positon debout il intervient dans la flexion de la colonne vertébrale et du bassin.
 </t>
         </is>
